--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\泉州银行\比赛题目\初赛A榜数据集\train\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\泉州银行\大模型\反洗钱\泉州银行文件导出流程-4728-2025-07-18_445720250718093659\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474E07D9-F7E2-4C2B-A5E7-854A829B4521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CF7BA4-6A7E-46EB-A694-C568705F345B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,72 +26,359 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>career</t>
-  </si>
-  <si>
-    <t>zip_code</t>
-  </si>
-  <si>
-    <t>residence</t>
-  </si>
-  <si>
-    <t>loan</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>interest_rate</t>
-  </si>
-  <si>
-    <t>issue_time</t>
-  </si>
-  <si>
-    <t>syndicated</t>
-  </si>
-  <si>
-    <t>installment</t>
-  </si>
-  <si>
-    <t>record_time</t>
-  </si>
-  <si>
-    <t>history_time</t>
-  </si>
-  <si>
-    <t>total_accounts</t>
-  </si>
-  <si>
-    <t>balance_accounts</t>
-  </si>
-  <si>
-    <t>balance_limit</t>
-  </si>
-  <si>
-    <t>balance</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>B0</t>
-  </si>
-  <si>
-    <t>B4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="114">
+  <si>
+    <t>CUST_ID</t>
+  </si>
+  <si>
+    <t>CERT_NO</t>
+  </si>
+  <si>
+    <t>COMP_ADDR</t>
+  </si>
+  <si>
+    <t>IS_LOAN</t>
+  </si>
+  <si>
+    <t>是否定期</t>
+  </si>
+  <si>
+    <t>定期户是否有未存满即销户</t>
+  </si>
+  <si>
+    <t>DUTY</t>
+  </si>
+  <si>
+    <t>管控状态</t>
+  </si>
+  <si>
+    <t>管控规则</t>
+  </si>
+  <si>
+    <t>BIRTH_DT</t>
+  </si>
+  <si>
+    <t>风险评级</t>
+  </si>
+  <si>
+    <t>EVNET_DESC</t>
+  </si>
+  <si>
+    <t>黑名单类型</t>
+  </si>
+  <si>
+    <t>REMARKS</t>
+  </si>
+  <si>
+    <t>RESP_RSLT</t>
+  </si>
+  <si>
+    <t>客户编号</t>
+  </si>
+  <si>
+    <t>证件号码</t>
+  </si>
+  <si>
+    <t>通讯地址</t>
+  </si>
+  <si>
+    <t>是否贷款客户</t>
+  </si>
+  <si>
+    <t>是否定期客户</t>
+  </si>
+  <si>
+    <t>职务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+  </si>
+  <si>
+    <t>风险评级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险事件描述</t>
+  </si>
+  <si>
+    <t>尽职调查结论</t>
+  </si>
+  <si>
+    <t>协查调查结论</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>CASE_ID</t>
+  </si>
+  <si>
+    <t>FETR_ID</t>
+  </si>
+  <si>
+    <t>FETR_NAME</t>
+  </si>
+  <si>
+    <t>ACCT_ID</t>
+  </si>
+  <si>
+    <t>TR_DT</t>
+  </si>
+  <si>
+    <t>TR_TM</t>
+  </si>
+  <si>
+    <t>TR_NO</t>
+  </si>
+  <si>
+    <t>TR_CHNL</t>
+  </si>
+  <si>
+    <t>IS_CASH</t>
+  </si>
+  <si>
+    <t>PAY_TYPE</t>
+  </si>
+  <si>
+    <t>DEBIT_CREDIT</t>
+  </si>
+  <si>
+    <t>OPP_NAME</t>
+  </si>
+  <si>
+    <t>TR_CNY_AMT</t>
+  </si>
+  <si>
+    <t>TR_BAL_AMT</t>
+  </si>
+  <si>
+    <t>TR_NOTE1</t>
+  </si>
+  <si>
+    <t>TR_NOTE2</t>
+  </si>
+  <si>
+    <t>TR_COUNTRY</t>
+  </si>
+  <si>
+    <t>TR_AREA</t>
+  </si>
+  <si>
+    <t>FUND_USE</t>
+  </si>
+  <si>
+    <t>OPP_ORG_NAME</t>
+  </si>
+  <si>
+    <t>OPP_ORG_TYPE</t>
+  </si>
+  <si>
+    <t>IF_THD_PA_TRADE</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>IP_ADDR</t>
+  </si>
+  <si>
+    <t>CURR_CD</t>
+  </si>
+  <si>
+    <t>TR_USD_AMT</t>
+  </si>
+  <si>
+    <t>TR_MAC</t>
+  </si>
+  <si>
+    <t>OPP_IS_CUST</t>
+  </si>
+  <si>
+    <t>案例编号</t>
+  </si>
+  <si>
+    <t>特征编号</t>
+  </si>
+  <si>
+    <t>特征名称</t>
+  </si>
+  <si>
+    <t>账户编号</t>
+  </si>
+  <si>
+    <t>交易日期</t>
+  </si>
+  <si>
+    <t>交易日期和时间</t>
+  </si>
+  <si>
+    <t>交易流水号</t>
+  </si>
+  <si>
+    <t>交易渠道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现转标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付工具及结算方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借贷标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方名称</t>
+  </si>
+  <si>
+    <t>交易金额</t>
+  </si>
+  <si>
+    <t>交易余额</t>
+  </si>
+  <si>
+    <t>交易信息备注1</t>
+  </si>
+  <si>
+    <t>交易信息备注2</t>
+  </si>
+  <si>
+    <t>交易发生国家</t>
+  </si>
+  <si>
+    <t>交易发生地区</t>
+  </si>
+  <si>
+    <t>资金用途和来源</t>
+  </si>
+  <si>
+    <t>对方金融机构名称</t>
+  </si>
+  <si>
+    <t>对方金融机构类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否第三方支付</t>
+  </si>
+  <si>
+    <t>IP地址</t>
+  </si>
+  <si>
+    <t>IP所在地区地址</t>
+  </si>
+  <si>
+    <t>币种</t>
+  </si>
+  <si>
+    <t>交易额（折合美元）</t>
+  </si>
+  <si>
+    <t>MAC地址</t>
+  </si>
+  <si>
+    <t>交易对手是否为我行客户</t>
+  </si>
+  <si>
+    <t>2021/11/18</t>
+  </si>
+  <si>
+    <t>2021/11/18 17:20:30</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>1706.00</t>
+  </si>
+  <si>
+    <t>5650.24</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>差旅费</t>
+  </si>
+  <si>
+    <t>招商银行</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>266.95</t>
+  </si>
+  <si>
+    <t>2021/11/18 17:22:20</t>
+  </si>
+  <si>
+    <t>3073.07</t>
+  </si>
+  <si>
+    <t>2577.17</t>
+  </si>
+  <si>
+    <t>480.86</t>
+  </si>
+  <si>
+    <t>2021/11/18 17:31:17</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>2522.17</t>
+  </si>
+  <si>
+    <t>车辆费</t>
+  </si>
+  <si>
+    <t>8.61</t>
+  </si>
+  <si>
+    <t>2021/11/18 17:49:13</t>
+  </si>
+  <si>
+    <t>1147.00</t>
+  </si>
+  <si>
+    <t>1375.17</t>
+  </si>
+  <si>
+    <t>179.48</t>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -154,6 +441,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E35A8D66-88ED-4F32-83D5-13F3F028CAA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="176213"/>
+          <a:ext cx="1" cy="528638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6CD205D-4236-4D50-97FF-4D0F3887AFCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2590802" y="176215"/>
+          <a:ext cx="0" cy="528637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C71229B8-6C22-48E9-B33A-C118398A4C81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="176213"/>
+          <a:ext cx="1" cy="528638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,7 +846,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:S4"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -473,195 +897,133 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>221373</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>7200</v>
-      </c>
-      <c r="G2" s="1">
-        <v>36</v>
-      </c>
-      <c r="H2" s="1">
-        <v>10.95</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1238631967</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1238630622</v>
-      </c>
-      <c r="M2" s="1">
-        <v>472006661</v>
-      </c>
-      <c r="N2" s="1">
-        <v>17</v>
-      </c>
-      <c r="O2" s="1">
-        <v>9</v>
-      </c>
-      <c r="P2" s="1">
-        <v>36200</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>13856</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1">
         <v>8</v>
       </c>
-      <c r="C3" s="1">
+      <c r="I3" s="1">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1">
         <v>10</v>
       </c>
-      <c r="D3" s="1">
-        <v>311681</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>21300</v>
-      </c>
-      <c r="G3" s="1">
-        <v>36</v>
-      </c>
-      <c r="H3" s="1">
-        <v>12.95</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1128212052</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L3" s="1">
-        <v>1161907665</v>
+        <v>12</v>
       </c>
       <c r="M3" s="1">
-        <v>763779041</v>
+        <v>13</v>
       </c>
       <c r="N3" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O3" s="1">
-        <v>9</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20400</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>13773</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="1">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1">
-        <v>271562</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>10400</v>
-      </c>
-      <c r="G4" s="1">
-        <v>60</v>
-      </c>
-      <c r="H4" s="1">
-        <v>21.05</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1249171509</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1383958593</v>
-      </c>
-      <c r="M4" s="1">
-        <v>727143443</v>
-      </c>
-      <c r="N4" s="1">
-        <v>17</v>
-      </c>
-      <c r="O4" s="1">
-        <v>9</v>
-      </c>
-      <c r="P4" s="1">
-        <v>10800</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>2023</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="1">
-        <v>0</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -671,248 +1033,575 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBEE033-D422-43DE-BB2C-76F88BFF1059}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>221373</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>311681</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="1">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S3" s="1">
+        <v>3</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>8</v>
-      </c>
       <c r="C4" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>271562</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S4" s="1">
+        <v>3</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="1">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="I5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
-        <v>522083</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>101026</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="F6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S6" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="1">
-        <v>401866</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>6</v>
-      </c>
+      <c r="T6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1">
-        <v>171208</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1">
-        <v>121061</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1">
-        <v>281590</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>6</v>
-      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1">
-        <v>101027</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1">
-        <v>231417</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>6</v>
-      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1">
-        <v>331720</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1">
-        <v>241453</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\泉州银行\大模型\反洗钱\泉州银行文件导出流程-4728-2025-07-18_445720250718093659\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CF7BA4-6A7E-46EB-A694-C568705F345B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38028818-B068-4EDA-9F41-B25E223E68ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="115">
   <si>
     <t>CUST_ID</t>
   </si>
@@ -378,6 +378,10 @@
   </si>
   <si>
     <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国福建省厦门市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1036,7 +1040,7 @@
   <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="S3" sqref="S3:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1270,8 +1274,8 @@
       <c r="R3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="S3" s="1">
-        <v>3</v>
+      <c r="S3" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>92</v>
@@ -1351,8 +1355,8 @@
       <c r="R4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="S4" s="1">
-        <v>3</v>
+      <c r="S4" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>92</v>
@@ -1432,8 +1436,8 @@
       <c r="R5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="S5" s="1">
-        <v>3</v>
+      <c r="S5" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>104</v>
@@ -1513,8 +1517,8 @@
       <c r="R6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="S6" s="1">
-        <v>3</v>
+      <c r="S6" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>92</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\泉州银行\大模型\反洗钱\泉州银行文件导出流程-4728-2025-07-18_445720250718093659\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38028818-B068-4EDA-9F41-B25E223E68ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBBFAF5-A6DD-41DC-A6FA-A21644396EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
